--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -5,17 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="926" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FIRST YEAR" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="student" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +38,7 @@
     <t>B16CS001</t>
   </si>
   <si>
-    <t>ME121 EE121 ME122 MA121 CS112 HS121 </t>
+    <t>ME121 EE121 ME122 MA121 CS112 HS121</t>
   </si>
   <si>
     <t>AJAT</t>
@@ -376,7 +371,7 @@
     <t>B16EE001</t>
   </si>
   <si>
-    <t>ME121 EE121 ME122 MA121 EE122 HS121  </t>
+    <t>ME121 EE121 ME122 MA121 EE122 HS121</t>
   </si>
   <si>
     <t>ADEESH</t>
@@ -1720,7 +1715,7 @@
     <t>B14CS001</t>
   </si>
   <si>
-    <t>CS321 CS322 CS323 HS321 </t>
+    <t>CS321 CS322 CS323 HS321</t>
   </si>
   <si>
     <t>B14CS002</t>
@@ -2626,6 +2621,13 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
@@ -2710,7 +2712,7 @@
   </sheetPr>
   <dimension ref="A1:Z345"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C277" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D301" activeCellId="0" sqref="D301"/>
     </sheetView>
   </sheetViews>
@@ -2722,6 +2724,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.6785714285714"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
